--- a/MLS.xlsx
+++ b/MLS.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6015DB98-110B-46C1-B093-F693110E7F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A59324-1130-47C1-AD8D-9B3945BA8CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6515FEED-B312-498B-BB02-51DEBE994296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MLS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="214">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>YouTube (subscribers)</t>
   </si>
@@ -74,70 +61,607 @@
     <t>Atlanta United FC</t>
   </si>
   <si>
+    <t>63100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlutd/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AtlantaUnitedFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@atlutd</t>
+  </si>
+  <si>
+    <t>https://twitter.com/atlutd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC8fg8L4X7qpQdHJgxpM4qxw</t>
+  </si>
+  <si>
+    <t>Austin FC</t>
+  </si>
+  <si>
+    <t>9670</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/austinfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AustinFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@austinfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AustinFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7u24YKDCkuioxWy5hTeTdQ</t>
+  </si>
+  <si>
+    <t>Charlotte FC</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/CharlotteFC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/charlotteFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@charlotte.fc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/charlotteFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCx4A5iThing38J7V05aLL2g</t>
+  </si>
+  <si>
     <t>Chicago Fire</t>
   </si>
   <si>
+    <t>16700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chicagofire/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chicagofire</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chicagofire</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChicagoFire</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMDsGMFC8boMU4I0nNC5bIw</t>
+  </si>
+  <si>
     <t>Colorado Rapids</t>
   </si>
   <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ColoradoRapids/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/coloradorapids/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@coloradorapids</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ColoradoRapids</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJCvuIrw1gAfQnTJRLGrPDQ</t>
+  </si>
+  <si>
     <t>Columbus Crew SC</t>
   </si>
   <si>
+    <t>14700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ColumbusCrew/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ColumbusCrew</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@columbuscrew96</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ColumbusCrew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCWaD_J0qRubgPr9DV_x9-Jw</t>
+  </si>
+  <si>
     <t>D.C. United</t>
   </si>
   <si>
+    <t>25900</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dcunited/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dcunited/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dcunited</t>
+  </si>
+  <si>
+    <t>https://twitter.com/dcunited</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsnTNtz7kUQNomCGlCQG-AA</t>
+  </si>
+  <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fccincinnati/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fccincinnati/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fccincy</t>
+  </si>
+  <si>
+    <t>https://twitter.com/fccincinnati</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqT7uS7skbqqNrn5LCCozMg</t>
+  </si>
+  <si>
     <t>FC Dallas</t>
   </si>
   <si>
+    <t>45200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fcdallas/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fcdallas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fcdofficial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/FCDallas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCE2JDtOSy6R-9dwkGIWgyEA</t>
+  </si>
+  <si>
     <t>Houston Dynamo</t>
   </si>
   <si>
+    <t>19400</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/houstondynamo/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/houstondynamo</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@houston.dynamo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/houstondynamo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMoXjcnOvCwUUm4M6ePY7Gg</t>
+  </si>
+  <si>
+    <t>Inter Miami CF</t>
+  </si>
+  <si>
+    <t>198000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/intermiamicf/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InterMiamiCF/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@intermiamicf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/intermiamicf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcFuqX01k0dCBULXl1YvCsA</t>
+  </si>
+  <si>
     <t>LA Galaxy</t>
   </si>
   <si>
+    <t>117000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQsasqjpe_blMBHbUoWYGZg</t>
+  </si>
+  <si>
     <t>Los Angeles FC</t>
   </si>
   <si>
+    <t>86000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lafc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lafc/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lafc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LAFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnqj91wjXAT0bsmxF1fHWBA</t>
+  </si>
+  <si>
     <t>Minnesota United FC</t>
   </si>
   <si>
+    <t>18400</t>
+  </si>
+  <si>
+    <t>https://instagram.com/mnufc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mnunitedfc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mnufc</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/mnufc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnFoCifXR_Qp5iXhK73-kjQ</t>
+  </si>
+  <si>
     <t>Montreal Impact</t>
   </si>
   <si>
+    <t>27200</t>
+  </si>
+  <si>
+    <t>https://instagram.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cfmontreal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7rAKewGgSTTJ7oEjwv5jzA</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>8600</t>
+  </si>
+  <si>
+    <t>http://instagram.com/nashvillesc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NashvilleSC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nashvillesc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nashvillesc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCoyHn37VOAANnjxQjL4LARA</t>
+  </si>
+  <si>
     <t>New England Revolution</t>
   </si>
   <si>
+    <t>15500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nerevolution/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nerevolution</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nerevolution</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nerevolution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCn1LnRzToob6tRp8V_ijeBQ</t>
+  </si>
+  <si>
     <t>New York City FC</t>
   </si>
   <si>
+    <t>82200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nycfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkcityfc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@newyorkcityfc</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/nycfc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmZQ-7cZhtXz8eH6UJza4JA</t>
+  </si>
+  <si>
     <t>New York Red Bulls</t>
   </si>
   <si>
+    <t>26700</t>
+  </si>
+  <si>
+    <t>https://instagram.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@redbullnewyork</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCOehRhbXyxRGsNO0nkLgZfA</t>
+  </si>
+  <si>
     <t>Orlando City SC</t>
   </si>
   <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/OrlandoCitySC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/orlandocitysc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@orlandocity</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/orlandocitysc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCrCHG9q2F2U57_QSEKHWvIQ</t>
+  </si>
+  <si>
     <t>Philadelphia Union</t>
   </si>
   <si>
+    <t>16100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/philaunion</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/philadelphiaunion</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@philaunion</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/philaunion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCa27XgnHniWKfXcEDGfwIgA</t>
+  </si>
+  <si>
     <t>Portland Timbers</t>
   </si>
   <si>
+    <t>22200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/TimbersFC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TimbersFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@timbersfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TimbersFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCm0KnY18KTa_h9bcm3aFEBw</t>
+  </si>
+  <si>
     <t>Real Salt Lake</t>
   </si>
   <si>
+    <t>16200</t>
+  </si>
+  <si>
+    <t>https://instagram.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@realsaltlakeofficial</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCGYzqSVKpc7svCtDbb-uEgw</t>
+  </si>
+  <si>
     <t>San Jose Earthquakes</t>
   </si>
   <si>
+    <t>https://www.instagram.com/sjearthquakes/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sanjoseearthquakes/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sjearthquakes</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SJEarthquakes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCw1I_b0PbB67iqNGdos0HYw</t>
+  </si>
+  <si>
     <t>Seattle Sounders FC</t>
   </si>
   <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/soundersfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SoundersFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@soundersfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SoundersFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyXDL0_K0CMfV4ghIaiUg1g</t>
+  </si>
+  <si>
     <t>Sporting Kansas City</t>
   </si>
   <si>
+    <t>24500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sportingkc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/SportingKC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sportingkc</t>
+  </si>
+  <si>
+    <t>http://twitter.com/SportingKC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDcDw3eCZvwNQdLfSUzhkTg</t>
+  </si>
+  <si>
+    <t>St. Louis CITY SC</t>
+  </si>
+  <si>
+    <t>12200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/stlcitysc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/stlCITYsc/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@stlcitysc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/stlCITYsc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCNxHd0AvwN7uhyAh7ZpRsdg</t>
+  </si>
+  <si>
     <t>Toronto FC</t>
   </si>
   <si>
+    <t>37200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/torontofc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/torontofc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@torontofc</t>
+  </si>
+  <si>
+    <t>http://twitter.com/torontofc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCc1qA_64TEqAX9pnGJOO0Dw</t>
+  </si>
+  <si>
     <t>Vancouver Whitecaps FC</t>
+  </si>
+  <si>
+    <t>40600</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/whitecapsfc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/WhitecapsFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@whitecapsfc</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/WhitecapsFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJ_qxVONy87ISlB2sYwIlvA</t>
   </si>
 </sst>
 </file>
@@ -204,7 +728,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -227,44 +751,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -291,32 +815,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -343,24 +849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,310 +860,1233 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748CC77-0ACF-4D58-90DE-1953BFD92F94}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>526986</v>
+      </c>
+      <c r="D2">
+        <v>465000</v>
+      </c>
+      <c r="E2">
+        <v>206300</v>
+      </c>
+      <c r="F2">
+        <v>996565</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>207585</v>
+      </c>
+      <c r="D3">
+        <v>96000</v>
+      </c>
+      <c r="E3">
+        <v>82400</v>
+      </c>
+      <c r="F3">
+        <v>91151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>196484</v>
+      </c>
+      <c r="D4">
+        <v>77000</v>
+      </c>
+      <c r="E4">
+        <v>84000</v>
+      </c>
+      <c r="F4">
+        <v>93227</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>187599</v>
+      </c>
+      <c r="D5">
+        <v>372000</v>
+      </c>
+      <c r="E5">
+        <v>118400</v>
+      </c>
+      <c r="F5">
+        <v>184437</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>116673</v>
+      </c>
+      <c r="D6">
+        <v>229000</v>
+      </c>
+      <c r="E6">
+        <v>37700</v>
+      </c>
+      <c r="F6">
+        <v>124766</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>216612</v>
+      </c>
+      <c r="D7">
+        <v>268000</v>
+      </c>
+      <c r="E7">
+        <v>39800</v>
+      </c>
+      <c r="F7">
+        <v>208270</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>220370</v>
+      </c>
+      <c r="D8">
+        <v>358000</v>
+      </c>
+      <c r="E8">
+        <v>73000</v>
+      </c>
+      <c r="F8">
+        <v>179016</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>168835</v>
+      </c>
+      <c r="D9">
+        <v>148000</v>
+      </c>
+      <c r="E9">
+        <v>15100</v>
+      </c>
+      <c r="F9">
+        <v>140145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>182848</v>
+      </c>
+      <c r="D10">
+        <v>411000</v>
+      </c>
+      <c r="E10">
+        <v>108500</v>
+      </c>
+      <c r="F10">
+        <v>196095</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>223501</v>
+      </c>
+      <c r="D11">
+        <v>337000</v>
+      </c>
+      <c r="E11">
+        <v>88200</v>
+      </c>
+      <c r="F11">
+        <v>419668</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>16124689</v>
+      </c>
+      <c r="D12">
+        <v>5500000</v>
+      </c>
+      <c r="E12">
+        <v>8200000</v>
+      </c>
+      <c r="F12">
+        <v>1218447</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>1523289</v>
+      </c>
+      <c r="D13">
+        <v>2600000</v>
+      </c>
+      <c r="E13">
+        <v>1300000</v>
+      </c>
+      <c r="F13">
+        <v>539764</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>854598</v>
+      </c>
+      <c r="D14">
+        <v>805000</v>
+      </c>
+      <c r="E14">
+        <v>274400</v>
+      </c>
+      <c r="F14">
+        <v>321280</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>133417</v>
+      </c>
+      <c r="D15">
+        <v>268000</v>
+      </c>
+      <c r="E15">
+        <v>125400</v>
+      </c>
+      <c r="F15">
+        <v>174439</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>180027</v>
+      </c>
+      <c r="D16">
+        <v>393000</v>
+      </c>
+      <c r="E16">
+        <v>45800</v>
+      </c>
+      <c r="F16">
+        <v>352518</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>159030</v>
+      </c>
+      <c r="D17">
+        <v>109000</v>
+      </c>
+      <c r="E17">
+        <v>54800</v>
+      </c>
+      <c r="F17">
+        <v>84513</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>136131</v>
+      </c>
+      <c r="D18">
+        <v>213000</v>
+      </c>
+      <c r="E18">
+        <v>41200</v>
+      </c>
+      <c r="F18">
+        <v>136026</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <v>771010</v>
+      </c>
+      <c r="D19">
+        <v>2200000</v>
+      </c>
+      <c r="E19">
+        <v>207900</v>
+      </c>
+      <c r="F19">
+        <v>397493</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <v>245569</v>
+      </c>
+      <c r="D20">
+        <v>966000</v>
+      </c>
+      <c r="E20">
+        <v>179200</v>
+      </c>
+      <c r="F20">
+        <v>232914</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>418009</v>
+      </c>
+      <c r="D21">
+        <v>597000</v>
+      </c>
+      <c r="E21">
+        <v>56300</v>
+      </c>
+      <c r="F21">
+        <v>486908</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22">
+        <v>375118</v>
+      </c>
+      <c r="D22">
+        <v>237000</v>
+      </c>
+      <c r="E22">
+        <v>116500</v>
+      </c>
+      <c r="F22">
+        <v>187163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>188421</v>
+      </c>
+      <c r="D23">
+        <v>308000</v>
+      </c>
+      <c r="E23">
+        <v>109000</v>
+      </c>
+      <c r="F23">
+        <v>351374</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>137270</v>
+      </c>
+      <c r="D24">
+        <v>246000</v>
+      </c>
+      <c r="E24">
+        <v>77200</v>
+      </c>
+      <c r="F24">
+        <v>170433</v>
+      </c>
+      <c r="H24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25">
+        <v>169642</v>
+      </c>
+      <c r="D25">
+        <v>235000</v>
+      </c>
+      <c r="E25">
+        <v>163100</v>
+      </c>
+      <c r="F25">
+        <v>278350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26">
+        <v>379447</v>
+      </c>
+      <c r="D26">
+        <v>784000</v>
+      </c>
+      <c r="E26">
+        <v>72100</v>
+      </c>
+      <c r="F26">
+        <v>572990</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27">
+        <v>207083</v>
+      </c>
+      <c r="D27">
+        <v>347000</v>
+      </c>
+      <c r="E27">
+        <v>63800</v>
+      </c>
+      <c r="F27">
+        <v>394531</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28">
+        <v>156773</v>
+      </c>
+      <c r="D28">
+        <v>220000</v>
+      </c>
+      <c r="E28">
+        <v>55000</v>
+      </c>
+      <c r="F28">
+        <v>110652</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29">
+        <v>344866</v>
+      </c>
+      <c r="D29">
+        <v>387000</v>
+      </c>
+      <c r="E29">
+        <v>197000</v>
+      </c>
+      <c r="F29">
+        <v>423321</v>
+      </c>
+      <c r="H29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30">
+        <v>184661</v>
+      </c>
+      <c r="D30">
+        <v>280000</v>
+      </c>
+      <c r="E30">
+        <v>126000</v>
+      </c>
+      <c r="F30">
+        <v>330789</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>